--- a/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>2,69; 12,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>1,39; 8,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>4,04; 13,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>4,13; 13,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>2,26; 9,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>1,89; 10,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>4,6; 16,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>9,89; 18,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>3,26; 9,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>2,25; 7,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>5,38; 12,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>8,18; 14,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>4,63; 8,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,42; 10,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,74; 12,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>8,11; 12,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>3,22; 6,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,58; 9,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,39; 11,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,92; 10,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,3; 6,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>6,0; 9,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,83; 11,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,88; 10,54</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,87; 8,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,19; 8,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,36; 9,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,3; 9,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,93; 9,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,56; 9,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,92; 9,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>6,48; 8,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,78; 8,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,06; 8,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,55; 8,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>6,8; 8,84</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,21; 6,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,8; 8,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>7,29; 11,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,39; 10,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,42; 7,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>6,49; 10,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,85; 9,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,6; 7,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,22; 6,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,28; 9,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,28; 10,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,09; 7,95</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,91; 6,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>7,49; 11,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,79; 8,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,09; 11,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,19; 6,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,13; 11,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,07; 9,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,95; 8,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,52; 6,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>8,34; 10,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,25; 8,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>7,36; 9,4</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,37; 8,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,44; 9,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,92; 9,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,53; 9,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,92; 8,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,5; 8,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,3; 6,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,27; 8,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,46; 8,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>7,36; 8,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 12,42</t>
+          <t>4,63; 8,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,12</t>
+          <t>5,17; 9,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 13,0</t>
+          <t>7,43; 12,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 13,31</t>
+          <t>7,6; 11,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,82</t>
+          <t>3,36; 6,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 10,93</t>
+          <t>5,28; 9,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 16,38</t>
+          <t>6,6; 11,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,89; 18,06</t>
+          <t>7,84; 10,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,31</t>
+          <t>4,45; 6,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,55</t>
+          <t>5,65; 8,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,96</t>
+          <t>7,65; 10,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 14,17</t>
+          <t>8,31; 10,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,58</t>
+          <t>4,87; 8,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,29</t>
+          <t>5,19; 8,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,86</t>
+          <t>6,36; 9,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 12,53</t>
+          <t>3,34; 8,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,93</t>
+          <t>5,93; 9,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,86</t>
+          <t>6,56; 9,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,49</t>
+          <t>5,92; 9,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 10,05</t>
+          <t>6,54; 9,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,98</t>
+          <t>5,78; 8,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,24</t>
+          <t>6,06; 8,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,26</t>
+          <t>6,55; 8,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 10,54</t>
+          <t>4,87; 8,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,17</t>
+          <t>3,21; 6,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,23</t>
+          <t>4,8; 8,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 9,76</t>
+          <t>7,29; 11,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,59</t>
+          <t>6,29; 10,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,36</t>
+          <t>4,42; 7,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,95</t>
+          <t>6,49; 10,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,43</t>
+          <t>5,85; 9,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 8,91</t>
+          <t>2,58; 6,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,1</t>
+          <t>4,22; 6,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 8,42</t>
+          <t>6,28; 9,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,98</t>
+          <t>7,28; 10,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 8,84</t>
+          <t>3,83; 7,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>8,04%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,43</t>
+          <t>3,91; 6,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,56</t>
+          <t>7,49; 11,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,77</t>
+          <t>5,79; 8,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,32</t>
+          <t>7,77; 11,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,92</t>
+          <t>4,19; 6,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,62</t>
+          <t>8,13; 11,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,76</t>
+          <t>6,07; 9,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,1</t>
+          <t>5,34; 8,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,64</t>
+          <t>4,52; 6,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,03</t>
+          <t>8,34; 10,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 10,35</t>
+          <t>6,25; 8,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,95</t>
+          <t>6,97; 9,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,68</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 11,45</t>
+          <t>6,37; 8,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,97</t>
+          <t>7,44; 9,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,51</t>
+          <t>6,29; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,94</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,71</t>
+          <t>7,53; 9,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,36</t>
+          <t>6,92; 8,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 8,51</t>
+          <t>5,78; 7,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,47</t>
+          <t>5,3; 6,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,99</t>
+          <t>7,27; 8,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,25; 8,66</t>
+          <t>7,46; 8,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 9,4</t>
+          <t>6,56; 8,21</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,81%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,46%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,3%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,89%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>8,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 6,4</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,37; 8,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,44; 9,24</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,92; 9,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,24; 6,85</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 9,37</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 8,9</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,5; 8,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,3; 6,44</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7,27; 8,57</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,46; 8,73</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 8,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,3</t>
+          <t>4,56; 8,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,16</t>
+          <t>5,24; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,05</t>
+          <t>7,72; 12,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 11,87</t>
+          <t>7,73; 11,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,72</t>
+          <t>3,4; 6,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,28</t>
+          <t>5,35; 9,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,14</t>
+          <t>6,52; 11,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 10,72</t>
+          <t>7,74; 10,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,96</t>
+          <t>4,48; 6,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,43</t>
+          <t>5,77; 8,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 10,79</t>
+          <t>7,69; 10,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 10,77</t>
+          <t>8,26; 10,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,17</t>
+          <t>4,81; 8,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,23</t>
+          <t>5,11; 8,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 9,76</t>
+          <t>6,34; 9,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,96</t>
+          <t>3,45; 8,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,36</t>
+          <t>5,98; 9,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,95</t>
+          <t>6,44; 9,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,43</t>
+          <t>5,93; 9,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 9,02</t>
+          <t>6,39; 8,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,1</t>
+          <t>5,79; 8,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 8,42</t>
+          <t>5,99; 8,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,98</t>
+          <t>6,63; 9,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,34</t>
+          <t>4,57; 8,27</t>
         </is>
       </c>
     </row>
@@ -1009,57 +1010,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,56</t>
+          <t>4,76; 8,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,77</t>
+          <t>7,19; 11,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,08</t>
+          <t>6,1; 9,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,92</t>
+          <t>4,44; 8,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,62</t>
+          <t>6,69; 10,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,76</t>
+          <t>5,87; 9,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,53</t>
+          <t>2,34; 6,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,64</t>
+          <t>4,24; 6,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,03</t>
+          <t>6,1; 8,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 10,35</t>
+          <t>7,15; 10,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,42</t>
+          <t>4,06; 7,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,68</t>
+          <t>4,02; 6,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 11,45</t>
+          <t>7,44; 11,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,97</t>
+          <t>5,73; 8,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,2</t>
+          <t>7,81; 11,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,94</t>
+          <t>4,14; 7,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,71</t>
+          <t>7,99; 11,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,36</t>
+          <t>5,89; 9,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,07</t>
+          <t>5,4; 8,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,47</t>
+          <t>4,45; 6,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,99</t>
+          <t>8,28; 10,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 8,66</t>
+          <t>6,4; 8,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 9,14</t>
+          <t>6,97; 9,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,4</t>
+          <t>4,85; 6,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,25</t>
+          <t>6,41; 8,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,24</t>
+          <t>7,46; 9,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,2</t>
+          <t>6,44; 9,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,85</t>
+          <t>5,26; 7,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 9,37</t>
+          <t>7,59; 9,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,9</t>
+          <t>6,94; 8,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,74</t>
+          <t>5,55; 7,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,44</t>
+          <t>5,24; 6,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 8,57</t>
+          <t>7,21; 8,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 8,73</t>
+          <t>7,46; 8,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 8,21</t>
+          <t>6,61; 8,28</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>43494</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48629</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>65548</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61105</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33675</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48597</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>58742</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>62733</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>77169</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>97226</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>124290</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>123839</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31594; 57264</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36748; 64033</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52125; 84010</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>49114; 73634</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23419; 46216</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>37154; 64161</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43896; 74429</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>52288; 73517</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61915; 95009</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>80542; 120082</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>103688; 146201</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>108360; 140672</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59067</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65570</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>80432</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77779</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73056</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82234</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>78793</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>73395</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>132123</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>147804</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>159225</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>151174</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46223; 77316</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>52005; 84327</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>64812; 97524</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41196; 105094</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>57925; 91004</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>66173; 100453</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61825; 98899</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>61250; 85157</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>111808; 155250</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>122609; 173808</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>136860; 190196</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>98260; 177888</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31108</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48637</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69659</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55605</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>40781</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>65872</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61360</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42932</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>71889</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>114508</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>131019</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98536</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21787; 43634</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35996; 63853</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>54621; 87874</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42929; 70129</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30383; 55072</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51895; 82923</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46057; 77329</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21854; 59748</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>57713; 90328</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>93564; 137818</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>110416; 156365</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>66376; 121829</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>49360</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>87235</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>68169</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>87620</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>57703</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>103284</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>79048</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>74657</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>107062</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>190519</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>147216</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>162277</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>37835; 62388</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>70411; 109036</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>53742; 83274</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72376; 103673</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42998; 73791</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>83770; 124481</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61478; 98318</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58935; 90148</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>88150; 127583</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>165170; 215884</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>126818; 175308</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>140616; 184215</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>183028</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>250071</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>283807</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>282108</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>205215</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>299986</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>277943</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>253717</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>388244</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>550056</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>561750</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>535825</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>158970; 209442</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>219446; 282832</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>253157; 316850</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>222751; 319679</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>177613; 237097</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>269319; 335355</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>246106; 313433</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>203062; 280081</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>349023; 424353</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>502682; 599412</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>517317; 608821</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>470477; 588927</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>